--- a/biology/Médecine/Hôpital_gynéco-obstétrique_et_pédiatrique_de_Douala/Hôpital_gynéco-obstétrique_et_pédiatrique_de_Douala.xlsx
+++ b/biology/Médecine/Hôpital_gynéco-obstétrique_et_pédiatrique_de_Douala/Hôpital_gynéco-obstétrique_et_pédiatrique_de_Douala.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_gyn%C3%A9co-obst%C3%A9trique_et_p%C3%A9diatrique_de_Douala</t>
+          <t>Hôpital_gynéco-obstétrique_et_pédiatrique_de_Douala</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Hôpital Gynécologique, Obstétrique et Pédiatrique de Douala (Hôpital gynéco-obstétrique et pédiatrique de Douala -  HGOPED), situé dans le quartier Yassa, est un hôpital de Douala, au Cameroun.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_gyn%C3%A9co-obst%C3%A9trique_et_p%C3%A9diatrique_de_Douala</t>
+          <t>Hôpital_gynéco-obstétrique_et_pédiatrique_de_Douala</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Hôpital gynéco-obstétrique et pédiatrique de Douala est spécialisé dans les soins aux femmes et aux enfants. Il est institué le 23 janvier 2014 par décret n°2014/023 du 23 janvier 2014 portant création, organisation et fonctionnement de l'Hôpital Gynéco-Obstétrique et Pédiatrique de Douala[1]. 
-Déjà en 2009, la société China Shanxi Construction Engineering Group Corp démarre les travaux[2]. Il a été officiellement inauguré en Novembre 2015 par le Premier ministre Philémon Yang.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hôpital gynéco-obstétrique et pédiatrique de Douala est spécialisé dans les soins aux femmes et aux enfants. Il est institué le 23 janvier 2014 par décret n°2014/023 du 23 janvier 2014 portant création, organisation et fonctionnement de l'Hôpital Gynéco-Obstétrique et Pédiatrique de Douala. 
+Déjà en 2009, la société China Shanxi Construction Engineering Group Corp démarre les travaux. Il a été officiellement inauguré en Novembre 2015 par le Premier ministre Philémon Yang.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_gyn%C3%A9co-obst%C3%A9trique_et_p%C3%A9diatrique_de_Douala</t>
+          <t>Hôpital_gynéco-obstétrique_et_pédiatrique_de_Douala</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,14 +558,11 @@
           <t>Services  de l'hôpital</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il comprend la radiologie, la chirurgie, la pharmacie, la gynécologie, la pédiatrie, l'ORL, l'ophtalmologie, l'anesthésie-réanimation, le laboratoire de biologie, le laboratoire d’électroencéphalographie, l'odonto-stomatologie[3].
-Personnel
-En 2019, l'hôpital compte 33 médécins spécialistes et 12 généralistes[4].
-Plateau technique
-Equipement
-L'Hôpital dispose de 308 lits[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il comprend la radiologie, la chirurgie, la pharmacie, la gynécologie, la pédiatrie, l'ORL, l'ophtalmologie, l'anesthésie-réanimation, le laboratoire de biologie, le laboratoire d’électroencéphalographie, l'odonto-stomatologie.
 </t>
         </is>
       </c>
@@ -562,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_gyn%C3%A9co-obst%C3%A9trique_et_p%C3%A9diatrique_de_Douala</t>
+          <t>Hôpital_gynéco-obstétrique_et_pédiatrique_de_Douala</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,12 +588,88 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Services  de l'hôpital</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Personnel</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2019, l'hôpital compte 33 médécins spécialistes et 12 généralistes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hôpital_gynéco-obstétrique_et_pédiatrique_de_Douala</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_gyn%C3%A9co-obst%C3%A9trique_et_p%C3%A9diatrique_de_Douala</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Services  de l'hôpital</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Equipement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hôpital dispose de 308 lits.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hôpital_gynéco-obstétrique_et_pédiatrique_de_Douala</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_gyn%C3%A9co-obst%C3%A9trique_et_p%C3%A9diatrique_de_Douala</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Risques sanitaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Malgré la pandémie COVID-19, l'hôpital s'organise pour l'organisation de la 33e édition de la Coupe d'Afrique des Nations de football[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Malgré la pandémie COVID-19, l'hôpital s'organise pour l'organisation de la 33e édition de la Coupe d'Afrique des Nations de football.
 </t>
         </is>
       </c>
